--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1599.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1599.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.3080340755066</v>
+        <v>0.6128789782524109</v>
       </c>
       <c r="B1">
-        <v>3.103319146171143</v>
+        <v>2.235052824020386</v>
       </c>
       <c r="C1">
-        <v>5.188007974556308</v>
+        <v>6.205644607543945</v>
       </c>
       <c r="D1">
-        <v>1.747144396591493</v>
+        <v>1.620736241340637</v>
       </c>
       <c r="E1">
-        <v>0.9218244839416412</v>
+        <v>1.591665029525757</v>
       </c>
     </row>
   </sheetData>
